--- a/pred_ohlcv/54_21/2020-01-24 AMO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 AMO ohlcv.xlsx
@@ -1640,7 +1640,7 @@
         <v>-37420765.95119999</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-29531168.55709999</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-29827820.24009999</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-28637159.52609999</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-28170992.59609999</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-29141283.48809999</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-28382886.65609999</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-28281177.50709999</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-26565019.52609999</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-24361689.10909999</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-23294110.85109999</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-23743326.25709999</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-24073880.98909999</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-23001880.94909999</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-23751802.01909999</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-23328013.90009999</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-21857653.02809999</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-23260207.80109999</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-23294110.85009999</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-23624665.58309999</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-25018744.59409999</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-24209493.18809999</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-43450327.14049994</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-43450327.14049994</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-45329158.99789994</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-45329158.99789994</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-45329158.99789994</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-44452101.49289994</v>
       </c>
       <c r="H357">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-45295255.94889994</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-43765564.73989994</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-44964701.21589994</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-43570622.20489994</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-42275179.49899995</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-41296412.84499995</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-41423549.28099995</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-39285802.96299995</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-40271201.32899994</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-41292346.79399995</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-44593272.92549995</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-44593272.92549995</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-47825625.69499995</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-87059947.09239997</v>
       </c>
       <c r="H523">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-87059947.09239997</v>
       </c>
       <c r="H524">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-85928616.71539997</v>
       </c>
       <c r="H525">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-84036833.04889996</v>
       </c>
       <c r="H527">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-83441543.22849996</v>
       </c>
       <c r="H529">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-83051658.15849996</v>
       </c>
       <c r="H535">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-84327076.49549995</v>
       </c>
       <c r="H536">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-81141139.18049996</v>
       </c>
       <c r="H537">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-80323412.01149996</v>
       </c>
       <c r="H538">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-80523229.40439995</v>
       </c>
       <c r="H543">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-100076014.9121</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-98588702.51509997</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-97816975.36059999</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-98651654.0546</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-24 AMO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 AMO ohlcv.xlsx
@@ -2472,7 +2472,7 @@
         <v>-29531168.55709999</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-29827820.24009999</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-28637159.52609999</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-28170992.59609999</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-29141283.48809999</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-28382886.65609999</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-28281177.50709999</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-26565019.52609999</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-24679714.09909999</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-24789899.01009999</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-23743326.25709999</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-24073880.98909999</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-23751802.01909999</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-23328013.90009999</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-21857653.02809999</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-23260207.80109999</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-24209493.18809999</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-39285802.96299995</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-40271201.32899994</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-41631377.28999995</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-40194919.46699995</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-41292346.79399995</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-44231187.25899994</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-43512797.12249994</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-44593272.92549995</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-44593272.92549995</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-45300815.18349995</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-45298438.28649995</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-47825625.69499995</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-48685731.67599995</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-50563552.48649995</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-49076240.08949995</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-50809349.59549996</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-52220380.13049995</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-52508556.05149996</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-84617485.56539997</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-83396953.56539997</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-84780334.81339997</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-87059947.09239997</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-85928616.71539997</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-84036833.04889996</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-83441543.22849996</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-83534776.61449996</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-82072891.50449996</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-83314406.79249996</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-84369455.30749996</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-83051658.15849996</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-84327076.49549995</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-81141139.18049996</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-80323412.01149996</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-80238654.38749994</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-81751394.07149994</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-81751394.07149994</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-80523229.40439995</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-96384203.56759994</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-99384203.56759994</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-98490194.53759994</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-97130018.57659994</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-96529987.39219993</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-98792120.81209998</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-98588702.51509997</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-99287769.01009998</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-98300526.59409998</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-98300526.59409998</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-99533566.11909999</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-98651654.0546</v>
       </c>
       <c r="H623">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-97918684.5096</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-101372093.8566</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-100579793.9746</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-101171221.253</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-100022939.352</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-100022939.352</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-101213600.066</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-100200930.362</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:8">
